--- a/Artefatos/Original/17 - Analise de Eventos para cada Cenário.xlsx
+++ b/Artefatos/Original/17 - Analise de Eventos para cada Cenário.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\phelipe\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5343E1A5-03FA-478B-8D11-C868310A3850}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCD18F44-AFC3-4151-B049-205C24C641AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{54FBDB5D-C7D6-41F0-8349-D841C4D9CF8B}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="40">
   <si>
     <t>Capacidades</t>
   </si>
@@ -48,60 +48,21 @@
     <t>Não evento</t>
   </si>
   <si>
-    <t>Solicitação de atendimento</t>
-  </si>
-  <si>
     <t>Cliente realiza cadastro no site</t>
   </si>
   <si>
-    <t>Cliente solicita um atendimento presencial</t>
-  </si>
-  <si>
     <t>Funcionário verifica solicitação e realiza agendamento</t>
   </si>
   <si>
-    <t>Negociação</t>
-  </si>
-  <si>
     <t>Funcionário apresenta possíveis resultados do processo</t>
   </si>
   <si>
-    <t>Cliente aceita</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>Funcionário cadastra dados do cliente</t>
-  </si>
-  <si>
-    <t>Cliente aceita os valores da negociação</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Contrato</t>
-  </si>
-  <si>
-    <t>Advogado firma acordo judicial</t>
-  </si>
-  <si>
-    <t>Cliente assina contrato</t>
-  </si>
-  <si>
     <t>P</t>
   </si>
   <si>
     <t>Temporal</t>
   </si>
   <si>
-    <t>Falha</t>
-  </si>
-  <si>
-    <t>Cliente não cumpre contrato</t>
-  </si>
-  <si>
-    <t>Empresa não cumpre o acordo</t>
-  </si>
-  <si>
     <t>Extemporâneo</t>
   </si>
   <si>
@@ -109,6 +70,81 @@
   </si>
   <si>
     <t>Nº</t>
+  </si>
+  <si>
+    <t>Consultoria</t>
+  </si>
+  <si>
+    <t>Cliente solicita um agendamento.</t>
+  </si>
+  <si>
+    <t>Funcionário apresenta o pré-contrato</t>
+  </si>
+  <si>
+    <t>Funcionario solicita os documentos das dívidas</t>
+  </si>
+  <si>
+    <t>Funcionario recebe os documentos</t>
+  </si>
+  <si>
+    <t>Funcionario elabora proposta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Funcionario analisa divida juridícamente </t>
+  </si>
+  <si>
+    <t>Funcionario entrar em contato com os credores.</t>
+  </si>
+  <si>
+    <t>Funcionario apresentar propostas de renegociação.</t>
+  </si>
+  <si>
+    <t>Funcionario elabora documento com propostas dos credores.</t>
+  </si>
+  <si>
+    <t>Funcionario analisa proposta de renegociação</t>
+  </si>
+  <si>
+    <t>Funcionario elabora contrato.</t>
+  </si>
+  <si>
+    <t>Funcionario registra contrato no sistema.</t>
+  </si>
+  <si>
+    <t>Cliente analisa proposta do contrato</t>
+  </si>
+  <si>
+    <t>Cliente assina o contrato</t>
+  </si>
+  <si>
+    <t>Funcionario apresenta contrato completo para o cliente.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cliente faz o pagamento </t>
+  </si>
+  <si>
+    <t>FB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Funcionário reprova consulta </t>
+  </si>
+  <si>
+    <t>FA</t>
+  </si>
+  <si>
+    <t>Cliente não aceita a proposta de contrato</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Funcionario renegocia o contrato com cliente </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atendimento ao cliente </t>
+  </si>
+  <si>
+    <t>Pagamento</t>
+  </si>
+  <si>
+    <t>Credores nega proposta apresentada</t>
   </si>
 </sst>
 </file>
@@ -144,21 +180,21 @@
       <b/>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
       <name val="Wingdings 2"/>
       <family val="1"/>
       <charset val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Wingdings 2"/>
+      <family val="1"/>
+      <charset val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -206,37 +242,6 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top/>
       <bottom style="medium">
         <color indexed="64"/>
@@ -307,33 +312,54 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -344,63 +370,124 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -718,288 +805,563 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:J14"/>
+  <dimension ref="B1:L30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="1.85546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="26.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="55" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="1.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="5.5703125" style="24" customWidth="1"/>
+    <col min="4" max="4" width="3.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="56.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="6" customHeight="1" thickBot="1"/>
-    <row r="2" spans="2:10" ht="14.25" customHeight="1" thickBot="1">
-      <c r="E2" s="5" t="s">
+    <row r="1" spans="2:11" ht="6" customHeight="1"/>
+    <row r="2" spans="2:11" ht="6" customHeight="1"/>
+    <row r="3" spans="2:11" ht="6" customHeight="1" thickBot="1"/>
+    <row r="4" spans="2:11" ht="14.25" customHeight="1" thickBot="1">
+      <c r="F4" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="43"/>
+      <c r="J4" s="43"/>
+      <c r="K4" s="44"/>
+    </row>
+    <row r="5" spans="2:11" s="22" customFormat="1" ht="14.25" customHeight="1" thickBot="1">
+      <c r="B5" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="46"/>
+      <c r="D5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K5" s="23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" s="15" customFormat="1" ht="14.25" customHeight="1">
+      <c r="B6" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="4">
+        <v>1</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="8"/>
+      <c r="G6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="9"/>
+    </row>
+    <row r="7" spans="2:11" s="15" customFormat="1" ht="14.25" customHeight="1">
+      <c r="B7" s="41"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="4">
+        <v>2</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="7"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="9"/>
+    </row>
+    <row r="8" spans="2:11" s="15" customFormat="1" ht="14.25" customHeight="1">
+      <c r="B8" s="41"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="4">
+        <f>D7+1</f>
+        <v>3</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="8"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="9"/>
+    </row>
+    <row r="9" spans="2:11" s="15" customFormat="1" ht="14.25" customHeight="1">
+      <c r="B9" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="36"/>
+      <c r="D9" s="10">
+        <f t="shared" ref="D9:D28" si="0">D8+1</f>
+        <v>4</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="13"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="14"/>
+    </row>
+    <row r="10" spans="2:11" s="15" customFormat="1" ht="14.25" customHeight="1">
+      <c r="B10" s="37"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="10">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="13"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="14"/>
+    </row>
+    <row r="11" spans="2:11" s="15" customFormat="1" ht="14.25" customHeight="1">
+      <c r="B11" s="37"/>
+      <c r="C11" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="10">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="12"/>
+      <c r="H11" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="14"/>
+    </row>
+    <row r="12" spans="2:11" s="15" customFormat="1" ht="14.25" customHeight="1">
+      <c r="B12" s="37"/>
+      <c r="C12" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="10">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="E12" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="13"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="14"/>
+    </row>
+    <row r="13" spans="2:11" s="15" customFormat="1" ht="14.25" customHeight="1">
+      <c r="B13" s="37"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="10">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="13"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="14"/>
+    </row>
+    <row r="14" spans="2:11" s="15" customFormat="1" ht="14.25" customHeight="1">
+      <c r="B14" s="37"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="10">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="13"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="14"/>
+    </row>
+    <row r="15" spans="2:11" s="15" customFormat="1" ht="14.25" customHeight="1">
+      <c r="B15" s="37"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="10">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="13"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="14"/>
+    </row>
+    <row r="16" spans="2:11" s="15" customFormat="1" ht="14.25" customHeight="1">
+      <c r="B16" s="37"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="10">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="27"/>
+    </row>
+    <row r="17" spans="2:12" s="15" customFormat="1" ht="14.25" customHeight="1">
+      <c r="B17" s="37"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="10">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="E17" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="27"/>
+    </row>
+    <row r="18" spans="2:12" s="15" customFormat="1" ht="14.25" customHeight="1">
+      <c r="B18" s="37"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="10">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="27"/>
+    </row>
+    <row r="19" spans="2:12" s="15" customFormat="1" ht="14.25" customHeight="1">
+      <c r="B19" s="37"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="10">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="I19" s="26"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="27"/>
+    </row>
+    <row r="20" spans="2:12" s="15" customFormat="1" ht="14.25" customHeight="1">
+      <c r="B20" s="37"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="10">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" s="12"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="I20" s="26"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="27"/>
+    </row>
+    <row r="21" spans="2:12" s="15" customFormat="1" ht="14.25" customHeight="1">
+      <c r="B21" s="37"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="10">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="E21" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="7"/>
-      <c r="G2" s="5" t="s">
+      <c r="F21" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="27"/>
+    </row>
+    <row r="22" spans="2:12" s="15" customFormat="1" ht="14.25" customHeight="1">
+      <c r="B22" s="37"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="10">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22" s="26"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="27"/>
+    </row>
+    <row r="23" spans="2:12" s="15" customFormat="1" ht="14.25" customHeight="1">
+      <c r="B23" s="37"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="10">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G23" s="26"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="26"/>
+      <c r="K23" s="27"/>
+    </row>
+    <row r="24" spans="2:12" s="15" customFormat="1" ht="14.25" customHeight="1">
+      <c r="B24" s="37"/>
+      <c r="C24" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" s="10">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G24" s="26"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="26"/>
+      <c r="J24" s="26"/>
+      <c r="K24" s="27"/>
+    </row>
+    <row r="25" spans="2:12" s="15" customFormat="1" ht="14.25" customHeight="1">
+      <c r="B25" s="37"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="10">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="26"/>
+      <c r="K25" s="32" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" s="15" customFormat="1" ht="14.25" customHeight="1">
+      <c r="B26" s="37"/>
+      <c r="C26" s="40"/>
+      <c r="D26" s="15">
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="7"/>
-    </row>
-    <row r="3" spans="2:10" ht="14.25" customHeight="1" thickBot="1">
-      <c r="B3" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="J3" s="13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="2:10" ht="14.25" customHeight="1">
-      <c r="B4" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="10">
-        <v>1</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="20"/>
-      <c r="F4" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="22"/>
-    </row>
-    <row r="5" spans="2:10" ht="14.25" customHeight="1">
-      <c r="B5" s="14"/>
-      <c r="C5" s="10">
-        <f>C4+1</f>
-        <v>2</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="23"/>
-      <c r="F5" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="24"/>
-    </row>
-    <row r="6" spans="2:10" ht="14.25" customHeight="1">
-      <c r="B6" s="14"/>
-      <c r="C6" s="10">
-        <f t="shared" ref="C6:C14" si="0">C5+1</f>
-        <v>3</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="21"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="24"/>
-    </row>
-    <row r="7" spans="2:10" ht="14.25" customHeight="1">
-      <c r="B7" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="3">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="25"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="J7" s="27"/>
-    </row>
-    <row r="8" spans="2:10" ht="14.25" customHeight="1">
-      <c r="B8" s="15"/>
-      <c r="C8" s="3">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="25"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="H8" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="I8" s="25"/>
-      <c r="J8" s="27"/>
-    </row>
-    <row r="9" spans="2:10" ht="14.25" customHeight="1">
-      <c r="B9" s="15"/>
-      <c r="C9" s="3">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="25"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="I9" s="25"/>
-      <c r="J9" s="27"/>
-    </row>
-    <row r="10" spans="2:10" ht="14.25" customHeight="1">
-      <c r="B10" s="15"/>
-      <c r="C10" s="3">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="25"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="27"/>
-    </row>
-    <row r="11" spans="2:10" ht="14.25" customHeight="1">
-      <c r="B11" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="10">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="23"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="24" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" ht="14.25" customHeight="1">
-      <c r="B12" s="14"/>
-      <c r="C12" s="10">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="23"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="24"/>
-    </row>
-    <row r="13" spans="2:10" ht="14.25" customHeight="1">
-      <c r="B13" s="15" t="s">
+      <c r="E26" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="I26" s="26"/>
+      <c r="J26" s="26"/>
+      <c r="K26" s="27"/>
+    </row>
+    <row r="27" spans="2:12" s="15" customFormat="1" ht="14.25" customHeight="1">
+      <c r="B27" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" s="4">
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="C13" s="3">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="D13" s="1" t="s">
+      <c r="E27" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G27" s="28"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="28"/>
+      <c r="J27" s="28"/>
+      <c r="K27" s="29"/>
+    </row>
+    <row r="28" spans="2:12" s="15" customFormat="1" ht="14.25" customHeight="1" thickBot="1">
+      <c r="B28" s="39"/>
+      <c r="C28" s="40"/>
+      <c r="D28" s="18">
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="E13" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="F13" s="26"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="27"/>
-    </row>
-    <row r="14" spans="2:10" ht="14.25" customHeight="1" thickBot="1">
-      <c r="B14" s="16"/>
-      <c r="C14" s="8">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="D14" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="F14" s="29"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="30"/>
+      <c r="E28" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="F28" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="G28" s="30"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="30"/>
+      <c r="J28" s="30"/>
+      <c r="K28" s="31"/>
+    </row>
+    <row r="29" spans="2:12" ht="14.25" customHeight="1">
+      <c r="B29" s="16"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="16"/>
+      <c r="L29" s="15"/>
+    </row>
+    <row r="30" spans="2:12" ht="14.25" customHeight="1">
+      <c r="B30" s="16"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="16"/>
+      <c r="J30" s="16"/>
+      <c r="K30" s="16"/>
+      <c r="L30" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="B11:B12"/>
+  <mergeCells count="10">
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:K4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="C6:C10"/>
+    <mergeCell ref="B9:B26"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C12:C23"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="B6:B8"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" scale="59" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="57" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>